--- a/Assignment/HW3/FP_heads_test1.xlsx
+++ b/Assignment/HW3/FP_heads_test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e2a0924c8968bf/Documents/SPRING21/582-GWMod/hws-PortilloD/Assignment/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{0A6549FB-38F7-44E9-BB40-D4DAF40C5D6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1FAD5D1D-12FE-44FC-922B-8D6CE6AD47F7}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{0A6549FB-38F7-44E9-BB40-D4DAF40C5D6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A208F3B2-7563-4B3B-8702-4A66E7ED841E}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="16320" windowWidth="11580" windowHeight="7845" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="16080" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP_heads" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>q=k dh/dz</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>kharm</t>
+  </si>
+  <si>
+    <t>Keq</t>
   </si>
 </sst>
 </file>
@@ -3069,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2737B931-CA27-46D7-9686-A464A597317E}">
-  <dimension ref="A2:AA28"/>
+  <dimension ref="A2:AA30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5207,6 +5210,27 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A28*25</f>
+        <v>96.645346300000014</v>
+      </c>
+      <c r="B30">
+        <f>B28/25</f>
+        <v>0.15463256336000003</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <f>A30/10/10</f>
+        <v>0.96645346300000023</v>
+      </c>
+      <c r="F30">
+        <f>B30/(10/100)</f>
+        <v>1.5463256336000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5214,10 +5238,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDB1C32-61A4-4920-B2C1-253C11CA472C}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5280,6 +5304,9 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -5302,6 +5329,10 @@
         <f>24/(($B$15/B24)+($C$15/C24)+($D$15/D24))</f>
         <v>12.563411489179938</v>
       </c>
+      <c r="H7">
+        <f>E15/((B15/B31)+(C15/C31)+(D15/D31))</f>
+        <v>5.723114164209802</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -5384,7 +5415,7 @@
         <v>0.1</v>
       </c>
       <c r="L10">
-        <v>0.9</v>
+        <v>0.94869999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5415,7 +5446,8 @@
         <v>0.7</v>
       </c>
       <c r="L11">
-        <v>0.9</v>
+        <f>FP_flux!E30</f>
+        <v>0.96645346300000023</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5470,6 +5502,10 @@
         <f t="shared" si="0"/>
         <v>12.563411579689369</v>
       </c>
+      <c r="H13">
+        <f>H7/24</f>
+        <v>0.23846309017540843</v>
+      </c>
       <c r="J13">
         <v>10</v>
       </c>
@@ -5683,7 +5719,7 @@
         <v>2.2763255779268814</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f>D19/(D10/$E$2)</f>
         <v>9.9999993677255521</v>
       </c>
     </row>
@@ -5727,6 +5763,20 @@
       <c r="D30">
         <f t="shared" si="2"/>
         <v>9.9999988935055946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>AVERAGE(B24:B30)</f>
+        <v>12.188001083440634</v>
+      </c>
+      <c r="C31">
+        <f>AVERAGE(C25:C29)</f>
+        <v>2.3482539662142541</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(D24:D30)</f>
+        <v>9.9999998073890861</v>
       </c>
     </row>
   </sheetData>
@@ -5739,8 +5789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F496D82-2398-48FC-AC26-31BCD25E253B}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5815,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.94869999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5842,7 +5892,8 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <f>FP_flux!E30</f>
+        <v>0.96645346300000023</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
